--- a/heydude_master/heydude/bin/Debug/sample.xlsx
+++ b/heydude_master/heydude/bin/Debug/sample.xlsx
@@ -15,7 +15,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+  <si>
+    <t>updated</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -25,11 +29,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>e</t>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -37,51 +41,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>g</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>z6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>*</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ppp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ggg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>h</t>
+    <t>f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -452,138 +416,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H16"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
       <c r="C2" t="s">
         <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4">
-        <v>2</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -594,154 +502,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J18"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="G2" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6">
-        <v>4</v>
-      </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B8">
-        <v>6</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B11">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18">
-        <v>16</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/heydude_master/heydude/bin/Debug/sample.xlsx
+++ b/heydude_master/heydude/bin/Debug/sample.xlsx
@@ -8,18 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="10" r:id="rId1"/>
-    <sheet name="工作表1 (2)" sheetId="11" r:id="rId2"/>
+    <sheet name="工作表1 (2)" sheetId="12" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
-  <si>
-    <t>updated</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,19 +29,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
+    <t>d</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,82 +400,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>7</v>
-      </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" t="s">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:D4" si="0">B$1&amp;$A2</f>
+        <v>b2</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" si="0"/>
+        <v>c2</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" si="0"/>
+        <v>d2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" t="s">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" si="0"/>
+        <v>b3</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
+        <v>c3</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="0"/>
+        <v>d3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>b4</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>c4</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="0"/>
+        <v>d4</v>
       </c>
     </row>
   </sheetData>
@@ -505,14 +481,14 @@
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -525,15 +501,51 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" t="str">
+        <f>B$1&amp;$A2</f>
+        <v>a1</v>
+      </c>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2" si="0">C$1&amp;$A2</f>
+        <v>c1</v>
+      </c>
+      <c r="D2" t="str">
+        <f>D$1&amp;$A2</f>
+        <v>d1</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:D5" si="1">B$1&amp;$A3</f>
+        <v>a2</v>
+      </c>
+      <c r="C3" t="str">
+        <f t="shared" si="1"/>
+        <v>c2</v>
+      </c>
+      <c r="D3" t="str">
+        <f t="shared" si="1"/>
+        <v>d2</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="1"/>
+        <v>a3</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="1"/>
+        <v>c3</v>
+      </c>
+      <c r="D4" t="str">
+        <f t="shared" si="1"/>
+        <v>d3</v>
       </c>
     </row>
   </sheetData>

--- a/heydude_master/heydude/bin/Debug/sample.xlsx
+++ b/heydude_master/heydude/bin/Debug/sample.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\liang\Desktop\heydude_master\heydude\bin\Debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12" yWindow="108" windowWidth="15456" windowHeight="5232" tabRatio="430"/>
+    <workbookView xWindow="12" yWindow="108" windowWidth="15456" windowHeight="5232" tabRatio="681" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="10" r:id="rId1"/>
     <sheet name="工作表1 (2)" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>a</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,13 +35,33 @@
   </si>
   <si>
     <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aaa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zzz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xxx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iii</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -90,7 +115,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -156,7 +181,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -189,9 +214,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -224,6 +266,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -399,16 +458,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -419,12 +478,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>2</v>
       </c>
       <c r="B2" t="str">
-        <f t="shared" ref="B2:D4" si="0">B$1&amp;$A2</f>
+        <f t="shared" ref="B2:D3" si="0">B$1&amp;$A2</f>
         <v>b2</v>
       </c>
       <c r="C2" t="str">
@@ -435,69 +494,93 @@
         <f t="shared" si="0"/>
         <v>d2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
       <c r="A3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="str">
         <f t="shared" si="0"/>
-        <v>b3</v>
+        <v>b4</v>
       </c>
       <c r="C3" t="str">
         <f t="shared" si="0"/>
-        <v>c3</v>
+        <v>c4</v>
       </c>
       <c r="D3" t="str">
         <f t="shared" si="0"/>
+        <v>d4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="str">
+        <f>B$1&amp;$A5</f>
+        <v>b3</v>
+      </c>
+      <c r="C5" t="str">
+        <f>C$1&amp;$A5</f>
+        <v>c3</v>
+      </c>
+      <c r="D5" t="str">
+        <f>D$1&amp;$A5</f>
         <v>d3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>4</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" si="0"/>
-        <v>b4</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" si="0"/>
-        <v>c4</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>d4</v>
+      <c r="E5">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.6"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.6">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -506,32 +589,38 @@
         <v>a1</v>
       </c>
       <c r="C2" t="str">
-        <f t="shared" ref="C2" si="0">C$1&amp;$A2</f>
+        <f>C$1&amp;$A2</f>
+        <v>d1</v>
+      </c>
+      <c r="D2" t="str">
+        <f t="shared" ref="D2" si="0">D$1&amp;$A2</f>
         <v>c1</v>
       </c>
-      <c r="D2" t="str">
-        <f>D$1&amp;$A2</f>
-        <v>d1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="str">
-        <f t="shared" ref="B3:D5" si="1">B$1&amp;$A3</f>
+        <f t="shared" ref="B3:D4" si="1">B$1&amp;$A3</f>
         <v>a2</v>
       </c>
       <c r="C3" t="str">
+        <f>C$1&amp;$A3</f>
+        <v>d2</v>
+      </c>
+      <c r="D3" t="str">
         <f t="shared" si="1"/>
         <v>c2</v>
       </c>
-      <c r="D3" t="str">
-        <f t="shared" si="1"/>
-        <v>d2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.6">
       <c r="A4">
         <v>3</v>
       </c>
@@ -540,16 +629,17 @@
         <v>a3</v>
       </c>
       <c r="C4" t="str">
+        <f>C$1&amp;$A4</f>
+        <v>d3</v>
+      </c>
+      <c r="D4" t="str">
         <f t="shared" si="1"/>
         <v>c3</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="1"/>
-        <v>d3</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>